--- a/BLL/Resources/SA_Template_v1_4.xlsx
+++ b/BLL/Resources/SA_Template_v1_4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12132"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="13" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="98">
   <si>
     <t>Sector 3</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>StructureHeight</t>
-  </si>
-  <si>
-    <t>InstallationType</t>
   </si>
   <si>
     <t>BSC</t>
@@ -1773,6 +1770,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,15 +1899,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1815,110 +1917,23 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="31" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1927,24 +1942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3171,13 +3168,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>489703</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>42734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3474,10 +3471,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P22"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3526,31 +3523,31 @@
       <c r="B4" s="5"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>46</v>
-      </c>
       <c r="H4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>46</v>
-      </c>
       <c r="J4" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4" s="87"/>
       <c r="L4" s="85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="86"/>
       <c r="N4" s="87"/>
       <c r="O4" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="13.8" thickBot="1">
@@ -3560,47 +3557,47 @@
       <c r="B5" s="4"/>
       <c r="E5" s="27"/>
       <c r="F5" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="J5" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="K5" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="M5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="33" t="s">
+      <c r="O5" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="66"/>
       <c r="E6" s="69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="37"/>
@@ -3621,7 +3618,7 @@
       <c r="B7" s="4"/>
       <c r="D7" s="66"/>
       <c r="E7" s="65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="37"/>
@@ -3642,7 +3639,7 @@
       <c r="B8" s="4"/>
       <c r="D8" s="66"/>
       <c r="E8" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="37"/>
@@ -3663,7 +3660,7 @@
       <c r="B9" s="4"/>
       <c r="D9" s="66"/>
       <c r="E9" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>
@@ -3679,12 +3676,12 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4"/>
       <c r="D10" s="66"/>
       <c r="E10" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="37"/>
@@ -3700,12 +3697,12 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4"/>
       <c r="D11" s="66"/>
       <c r="E11" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="34"/>
@@ -3726,7 +3723,7 @@
       <c r="B12" s="4"/>
       <c r="D12" s="66"/>
       <c r="E12" s="65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
@@ -3747,7 +3744,7 @@
       <c r="B13" s="4"/>
       <c r="D13" s="66"/>
       <c r="E13" s="65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="37"/>
@@ -3768,7 +3765,7 @@
       <c r="B14" s="4"/>
       <c r="D14" s="66"/>
       <c r="E14" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="40"/>
@@ -3802,16 +3799,16 @@
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="59"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
@@ -3823,13 +3820,7 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="42"/>
+      <c r="B21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3847,7 +3838,7 @@
           <x14:formula1>
             <xm:f>DataValidation!$A$3:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B19</xm:sqref>
+          <xm:sqref>B18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3871,262 +3862,262 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" thickBot="1">
       <c r="A1" s="75"/>
-      <c r="B1" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
+      <c r="B1" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="121">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122">
         <v>2</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122">
         <v>3</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="24.6">
       <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="24.6">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:15" ht="25.2" thickBot="1">
       <c r="A5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="17.399999999999999">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" ht="18" thickBot="1">
       <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="1:15" ht="17.399999999999999">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="18" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
     </row>
     <row r="10" spans="1:15" ht="17.399999999999999">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:15" ht="18" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:15" ht="17.399999999999999">
       <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:15" ht="18" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -4148,7 +4139,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>9</v>
@@ -4174,7 +4165,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -4192,7 +4183,7 @@
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4211,7 +4202,7 @@
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -4230,7 +4221,7 @@
     </row>
     <row r="19" spans="1:18" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -4306,7 +4297,7 @@
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -4325,7 +4316,7 @@
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -4344,7 +4335,7 @@
     </row>
     <row r="25" spans="1:18" ht="18" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -4363,7 +4354,7 @@
     </row>
     <row r="26" spans="1:18" ht="18" thickBot="1">
       <c r="A26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -4401,7 +4392,7 @@
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1">
       <c r="A28" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -4420,7 +4411,7 @@
     </row>
     <row r="29" spans="1:18" ht="18" thickBot="1">
       <c r="A29" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -4439,7 +4430,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -4458,7 +4449,7 @@
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1">
       <c r="A31" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="57"/>
@@ -4476,8 +4467,8 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="115" t="s">
-        <v>69</v>
+      <c r="A32" s="89" t="s">
+        <v>68</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
@@ -4498,7 +4489,7 @@
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A33" s="116"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="77"/>
       <c r="C33" s="77"/>
       <c r="D33" s="77"/>
@@ -4518,7 +4509,7 @@
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A34" s="116"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77"/>
       <c r="D34" s="77"/>
@@ -4538,7 +4529,7 @@
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
       <c r="D35" s="79"/>
@@ -4558,8 +4549,8 @@
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>62</v>
+      <c r="A36" s="89" t="s">
+        <v>61</v>
       </c>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
@@ -4580,7 +4571,7 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A37" s="116"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="71"/>
       <c r="C37" s="71"/>
       <c r="D37" s="71"/>
@@ -4600,7 +4591,7 @@
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A38" s="116"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="71"/>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
@@ -4620,7 +4611,7 @@
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A39" s="117"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
@@ -4641,31 +4632,11 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:G2"/>
@@ -4682,6 +4653,26 @@
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:N5">
     <cfRule type="expression" dxfId="18" priority="14">
@@ -4794,37 +4785,37 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
       <c r="A3" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.8">
       <c r="A4" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="13.8">
       <c r="A5" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="13.8">
       <c r="A6" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="13.8">
       <c r="A7" s="61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="13.8">
       <c r="A8" s="61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +4830,7 @@
   </sheetPr>
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -4851,136 +4842,136 @@
   <sheetData>
     <row r="1" spans="1:24" ht="25.2" thickBot="1">
       <c r="A1" s="75"/>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:24" ht="18" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="121">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122">
         <v>2</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122">
         <v>3</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:24" ht="24.6">
       <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:24" ht="24.6">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:24" ht="25.2" thickBot="1">
       <c r="A5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
     </row>
     <row r="6" spans="1:24" ht="17.399999999999999">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:24" ht="18" thickBot="1">
       <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="137"/>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
       <c r="S7" s="43"/>
@@ -4994,19 +4985,19 @@
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="43"/>
       <c r="S8" s="43"/>
@@ -5020,109 +5011,109 @@
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
     </row>
     <row r="10" spans="1:24" ht="17.399999999999999">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:24" ht="18" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
     </row>
     <row r="12" spans="1:24" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:24" ht="17.399999999999999">
       <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:24" ht="18" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:24" ht="18" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -5144,7 +5135,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>9</v>
@@ -5170,7 +5161,7 @@
     </row>
     <row r="16" spans="1:24" s="43" customFormat="1" ht="18" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -5188,7 +5179,7 @@
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -5208,7 +5199,7 @@
     </row>
     <row r="18" spans="1:18" s="43" customFormat="1" ht="18" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -5227,7 +5218,7 @@
     </row>
     <row r="19" spans="1:18" s="43" customFormat="1" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -5303,7 +5294,7 @@
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -5322,7 +5313,7 @@
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -5341,7 +5332,7 @@
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="18" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -5360,7 +5351,7 @@
     </row>
     <row r="26" spans="1:18" s="43" customFormat="1" ht="18" thickBot="1">
       <c r="A26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -5398,7 +5389,7 @@
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1">
       <c r="A28" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -5417,7 +5408,7 @@
     </row>
     <row r="29" spans="1:18" s="43" customFormat="1" ht="18" thickBot="1">
       <c r="A29" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -5436,7 +5427,7 @@
     </row>
     <row r="30" spans="1:18" s="43" customFormat="1" ht="18" thickBot="1">
       <c r="A30" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -5455,7 +5446,7 @@
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1">
       <c r="A31" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -5473,164 +5464,164 @@
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="120"/>
+      <c r="A32" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="19"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
       <c r="O33" s="19"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="97"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="126"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" s="43" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="129"/>
+      <c r="A36" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="19"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" s="43" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="106"/>
       <c r="O37" s="19"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" s="43" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="132"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="106"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" s="43" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="135"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="109"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -5638,11 +5629,33 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B32:N35"/>
@@ -5659,28 +5672,6 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:N5">
     <cfRule type="expression" dxfId="168" priority="85">
@@ -5787,154 +5778,154 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" thickBot="1">
       <c r="A1" s="75"/>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="121">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122">
         <v>2</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122">
         <v>3</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="24.6">
       <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="24.6">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="140"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="146"/>
     </row>
     <row r="5" spans="1:15" ht="25.2" thickBot="1">
       <c r="A5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="17.399999999999999">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" ht="18" thickBot="1">
       <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="1:15" ht="17.399999999999999">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="18" thickBot="1">
       <c r="A9" s="10" t="s">
@@ -5958,19 +5949,19 @@
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:15" ht="18" thickBot="1">
       <c r="A11" s="10" t="s">
@@ -5992,57 +5983,57 @@
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:15" ht="17.399999999999999">
       <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="146"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="138"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="140"/>
     </row>
     <row r="15" spans="1:15" ht="18" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -6064,7 +6055,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>9</v>
@@ -6090,7 +6081,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -6108,7 +6099,7 @@
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -6127,7 +6118,7 @@
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -6146,7 +6137,7 @@
     </row>
     <row r="19" spans="1:18" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -6222,7 +6213,7 @@
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -6241,7 +6232,7 @@
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -6260,7 +6251,7 @@
     </row>
     <row r="25" spans="1:18" ht="18" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -6279,7 +6270,7 @@
     </row>
     <row r="26" spans="1:18" ht="18" thickBot="1">
       <c r="A26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -6317,7 +6308,7 @@
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1">
       <c r="A28" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -6336,7 +6327,7 @@
     </row>
     <row r="29" spans="1:18" ht="18" thickBot="1">
       <c r="A29" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -6355,7 +6346,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -6374,7 +6365,7 @@
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1">
       <c r="A31" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="57"/>
@@ -6392,164 +6383,164 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="120"/>
+      <c r="A32" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="19"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
       <c r="O33" s="19"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="97"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="126"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="129"/>
+      <c r="A36" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="19"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="106"/>
       <c r="O37" s="19"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="132"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="106"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="135"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="109"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -6557,20 +6548,24 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B5:N5"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B32:N35"/>
@@ -6587,19 +6582,15 @@
     <mergeCell ref="B36:N39"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:N11"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:N5">
     <cfRule type="expression" dxfId="151" priority="14">
@@ -6716,262 +6707,262 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" thickBot="1">
       <c r="A1" s="75"/>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="121">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122">
         <v>2</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122">
         <v>3</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="24.6">
       <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="24.6">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:15" ht="25.2" thickBot="1">
       <c r="A5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="17.399999999999999">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" ht="18" thickBot="1">
       <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="1:15" ht="17.399999999999999">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="18" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
     </row>
     <row r="10" spans="1:15" ht="17.399999999999999">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:15" ht="18" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:15" ht="17.399999999999999">
       <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:15" ht="18" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -6993,7 +6984,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>9</v>
@@ -7019,7 +7010,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -7037,7 +7028,7 @@
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -7056,7 +7047,7 @@
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -7075,7 +7066,7 @@
     </row>
     <row r="19" spans="1:18" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -7151,7 +7142,7 @@
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -7170,7 +7161,7 @@
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -7189,7 +7180,7 @@
     </row>
     <row r="25" spans="1:18" ht="18" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -7208,7 +7199,7 @@
     </row>
     <row r="26" spans="1:18" ht="18" thickBot="1">
       <c r="A26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -7246,7 +7237,7 @@
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1">
       <c r="A28" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -7265,7 +7256,7 @@
     </row>
     <row r="29" spans="1:18" ht="18" thickBot="1">
       <c r="A29" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -7284,7 +7275,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -7303,7 +7294,7 @@
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1">
       <c r="A31" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="57"/>
@@ -7321,164 +7312,164 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="120"/>
+      <c r="A32" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="19"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
       <c r="O33" s="19"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="97"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="126"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="129"/>
+      <c r="A36" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="19"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="106"/>
       <c r="O37" s="19"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="132"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="106"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="135"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="109"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -7486,17 +7477,27 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B32:N35"/>
     <mergeCell ref="B36:N39"/>
@@ -7513,22 +7514,12 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:N12"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:N5">
     <cfRule type="expression" dxfId="132" priority="14">
@@ -7645,262 +7636,262 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" thickBot="1">
       <c r="A1" s="75"/>
-      <c r="B1" s="136" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
+      <c r="B1" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="121">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122">
         <v>2</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122">
         <v>3</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="24.6">
       <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="24.6">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:15" ht="25.2" thickBot="1">
       <c r="A5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="17.399999999999999">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" ht="18" thickBot="1">
       <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="1:15" ht="17.399999999999999">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="18" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
     </row>
     <row r="10" spans="1:15" ht="17.399999999999999">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:15" ht="18" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:15" ht="17.399999999999999">
       <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:15" ht="18" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -7922,7 +7913,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>9</v>
@@ -7948,7 +7939,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -7966,7 +7957,7 @@
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -7985,7 +7976,7 @@
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -8004,7 +7995,7 @@
     </row>
     <row r="19" spans="1:18" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -8080,7 +8071,7 @@
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -8099,7 +8090,7 @@
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -8118,7 +8109,7 @@
     </row>
     <row r="25" spans="1:18" ht="18" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -8137,7 +8128,7 @@
     </row>
     <row r="26" spans="1:18" ht="18" thickBot="1">
       <c r="A26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -8175,7 +8166,7 @@
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1">
       <c r="A28" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -8194,7 +8185,7 @@
     </row>
     <row r="29" spans="1:18" ht="18" thickBot="1">
       <c r="A29" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -8213,7 +8204,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -8232,7 +8223,7 @@
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1">
       <c r="A31" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="57"/>
@@ -8250,164 +8241,164 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="120"/>
+      <c r="A32" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="19"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
       <c r="O33" s="19"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="97"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="126"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="129"/>
+      <c r="A36" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="19"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="106"/>
       <c r="O37" s="19"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="132"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="106"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="135"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="109"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -8415,26 +8406,18 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B32:N35"/>
-    <mergeCell ref="B36:N39"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:N3"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:N10"/>
@@ -8451,13 +8434,21 @@
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B32:N35"/>
+    <mergeCell ref="B36:N39"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:N12"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:N5">
     <cfRule type="expression" dxfId="113" priority="14">
@@ -8571,262 +8562,262 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" thickBot="1">
       <c r="A1" s="75"/>
-      <c r="B1" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
+      <c r="B1" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="121">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122">
         <v>2</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122">
         <v>3</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="24.6">
       <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="24.6">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:15" ht="25.2" thickBot="1">
       <c r="A5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="17.399999999999999">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" ht="18" thickBot="1">
       <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="1:15" ht="17.399999999999999">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="18" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
     </row>
     <row r="10" spans="1:15" ht="17.399999999999999">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:15" ht="18" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:15" ht="17.399999999999999">
       <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:15" ht="18" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -8848,7 +8839,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>9</v>
@@ -8874,7 +8865,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -8892,7 +8883,7 @@
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -8911,7 +8902,7 @@
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -8930,7 +8921,7 @@
     </row>
     <row r="19" spans="1:18" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -9006,7 +8997,7 @@
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -9025,7 +9016,7 @@
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -9044,7 +9035,7 @@
     </row>
     <row r="25" spans="1:18" ht="18" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -9063,7 +9054,7 @@
     </row>
     <row r="26" spans="1:18" ht="18" thickBot="1">
       <c r="A26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -9101,7 +9092,7 @@
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1">
       <c r="A28" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -9120,7 +9111,7 @@
     </row>
     <row r="29" spans="1:18" ht="18" thickBot="1">
       <c r="A29" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -9139,7 +9130,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -9158,7 +9149,7 @@
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1">
       <c r="A31" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="57"/>
@@ -9176,164 +9167,164 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="120"/>
+      <c r="A32" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="19"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
       <c r="O33" s="19"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="97"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="126"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="129"/>
+      <c r="A36" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="19"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="106"/>
       <c r="O37" s="19"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="132"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="106"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="135"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="109"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -9341,33 +9332,11 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B32:N35"/>
-    <mergeCell ref="B36:N39"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:G2"/>
@@ -9384,6 +9353,28 @@
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B32:N35"/>
+    <mergeCell ref="B36:N39"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:N5">
     <cfRule type="expression" dxfId="94" priority="14">
@@ -9496,262 +9487,262 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" thickBot="1">
       <c r="A1" s="75"/>
-      <c r="B1" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
+      <c r="B1" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="121">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122">
         <v>2</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122">
         <v>3</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="24.6">
       <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="24.6">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:15" ht="25.2" thickBot="1">
       <c r="A5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="17.399999999999999">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" ht="18" thickBot="1">
       <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="1:15" ht="17.399999999999999">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="18" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
     </row>
     <row r="10" spans="1:15" ht="17.399999999999999">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:15" ht="18" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:15" ht="17.399999999999999">
       <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:15" ht="18" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -9773,7 +9764,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>9</v>
@@ -9799,7 +9790,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -9817,7 +9808,7 @@
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -9836,7 +9827,7 @@
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -9855,7 +9846,7 @@
     </row>
     <row r="19" spans="1:18" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -9931,7 +9922,7 @@
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -9950,7 +9941,7 @@
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -9969,7 +9960,7 @@
     </row>
     <row r="25" spans="1:18" ht="18" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -9988,7 +9979,7 @@
     </row>
     <row r="26" spans="1:18" ht="18" thickBot="1">
       <c r="A26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -10026,7 +10017,7 @@
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1">
       <c r="A28" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -10045,7 +10036,7 @@
     </row>
     <row r="29" spans="1:18" ht="18" thickBot="1">
       <c r="A29" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -10064,7 +10055,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -10083,7 +10074,7 @@
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1">
       <c r="A31" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="57"/>
@@ -10101,164 +10092,164 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="120"/>
+      <c r="A32" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="19"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
       <c r="O33" s="19"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="97"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="126"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="129"/>
+      <c r="A36" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="19"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="106"/>
       <c r="O37" s="19"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="132"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="106"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="135"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="109"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -10266,33 +10257,11 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B32:N35"/>
-    <mergeCell ref="B36:N39"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:G2"/>
@@ -10309,6 +10278,28 @@
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B32:N35"/>
+    <mergeCell ref="B36:N39"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:N5">
     <cfRule type="expression" dxfId="75" priority="14">
@@ -10421,262 +10412,262 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" thickBot="1">
       <c r="A1" s="75"/>
-      <c r="B1" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
+      <c r="B1" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="121">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122">
         <v>2</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122">
         <v>3</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="24.6">
       <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="24.6">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:15" ht="25.2" thickBot="1">
       <c r="A5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="17.399999999999999">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" ht="18" thickBot="1">
       <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="1:15" ht="17.399999999999999">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="18" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
     </row>
     <row r="10" spans="1:15" ht="17.399999999999999">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:15" ht="18" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:15" ht="17.399999999999999">
       <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:15" ht="18" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -10698,7 +10689,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>9</v>
@@ -10724,7 +10715,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -10742,7 +10733,7 @@
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -10761,7 +10752,7 @@
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -10780,7 +10771,7 @@
     </row>
     <row r="19" spans="1:18" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -10856,7 +10847,7 @@
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -10875,7 +10866,7 @@
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -10894,7 +10885,7 @@
     </row>
     <row r="25" spans="1:18" ht="18" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -10913,7 +10904,7 @@
     </row>
     <row r="26" spans="1:18" ht="18" thickBot="1">
       <c r="A26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -10951,7 +10942,7 @@
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1">
       <c r="A28" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -10970,7 +10961,7 @@
     </row>
     <row r="29" spans="1:18" ht="18" thickBot="1">
       <c r="A29" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -10989,7 +10980,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -11008,7 +10999,7 @@
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1">
       <c r="A31" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="57"/>
@@ -11026,164 +11017,164 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="120"/>
+      <c r="A32" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="19"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
       <c r="O33" s="19"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="97"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="126"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="100"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="129"/>
+      <c r="A36" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="103"/>
       <c r="O36" s="19"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="131"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="132"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="106"/>
       <c r="O37" s="19"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="132"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="106"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A39" s="117"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="135"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="109"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -11191,36 +11182,11 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B32:N35"/>
-    <mergeCell ref="B36:N39"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:N12"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="B1:N1"/>
@@ -11234,6 +11200,31 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B32:N35"/>
+    <mergeCell ref="B36:N39"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:N5">
     <cfRule type="expression" dxfId="56" priority="14">
@@ -11346,262 +11337,262 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" thickBot="1">
       <c r="A1" s="75"/>
-      <c r="B1" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="137"/>
+      <c r="B1" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:15" ht="18" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="121">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122">
         <v>2</v>
       </c>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122">
         <v>3</v>
       </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="111"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:15" ht="24.6">
       <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="24.6">
       <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="131"/>
     </row>
     <row r="5" spans="1:15" ht="25.2" thickBot="1">
       <c r="A5" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
     </row>
     <row r="6" spans="1:15" ht="17.399999999999999">
       <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:15" ht="18" thickBot="1">
       <c r="A7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102"/>
+        <v>58</v>
+      </c>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="1:15" ht="17.399999999999999">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:15" ht="18" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="105"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
     </row>
     <row r="10" spans="1:15" ht="17.399999999999999">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:15" ht="18" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
     </row>
     <row r="12" spans="1:15" ht="17.399999999999999">
       <c r="A12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
+        <v>56</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:15" ht="17.399999999999999">
       <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="91"/>
+        <v>54</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:15" ht="18" thickBot="1">
       <c r="A15" s="12" t="s">
@@ -11623,7 +11614,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="46" t="s">
         <v>9</v>
@@ -11649,7 +11640,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" thickBot="1">
       <c r="A16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -11667,7 +11658,7 @@
     </row>
     <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -11686,7 +11677,7 @@
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1">
       <c r="A18" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -11705,7 +11696,7 @@
     </row>
     <row r="19" spans="1:18" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -11800,7 +11791,7 @@
     </row>
     <row r="24" spans="1:18" ht="18" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -11819,7 +11810,7 @@
     </row>
     <row r="25" spans="1:18" ht="18" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -11838,7 +11829,7 @@
     </row>
     <row r="26" spans="1:18" ht="18" thickBot="1">
       <c r="A26" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -11876,7 +11867,7 @@
     </row>
     <row r="28" spans="1:18" ht="18" thickBot="1">
       <c r="A28" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -11895,7 +11886,7 @@
     </row>
     <row r="29" spans="1:18" ht="18" thickBot="1">
       <c r="A29" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -11914,7 +11905,7 @@
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -11933,7 +11924,7 @@
     </row>
     <row r="31" spans="1:18" ht="18" thickBot="1">
       <c r="A31" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="57"/>
@@ -11951,8 +11942,8 @@
       <c r="O31" s="44"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A32" s="115" t="s">
-        <v>69</v>
+      <c r="A32" s="89" t="s">
+        <v>68</v>
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
@@ -11973,7 +11964,7 @@
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A33" s="116"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="77"/>
       <c r="C33" s="77"/>
       <c r="D33" s="77"/>
@@ -11993,7 +11984,7 @@
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A34" s="116"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77"/>
       <c r="D34" s="77"/>
@@ -12013,7 +12004,7 @@
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
       <c r="D35" s="79"/>
@@ -12033,8 +12024,8 @@
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A36" s="115" t="s">
-        <v>62</v>
+      <c r="A36" s="89" t="s">
+        <v>61</v>
       </c>
       <c r="B36" s="70"/>
       <c r="C36" s="70"/>
@@ -12055,7 +12046,7 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A37" s="116"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="71"/>
       <c r="C37" s="71"/>
       <c r="D37" s="71"/>
@@ -12075,7 +12066,7 @@
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="13.2" customHeight="1">
-      <c r="A38" s="116"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="71"/>
       <c r="C38" s="71"/>
       <c r="D38" s="71"/>
@@ -12095,7 +12086,7 @@
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A39" s="117"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
@@ -12116,31 +12107,11 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:G2"/>
@@ -12157,6 +12128,26 @@
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:N5">
     <cfRule type="expression" dxfId="37" priority="14">
